--- a/CsvFiles/StarCitizienShipWeaponDatabase.xlsx
+++ b/CsvFiles/StarCitizienShipWeaponDatabase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42de4e58389d54ac/Dokument/school/1DV503 Databasteknik/Database-Assignment-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42de4e58389d54ac/Dokument/school/1DV503 Databasteknik/Database-Mini-Project/CsvFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1527" documentId="8_{8AF52736-FF23-49A2-A830-9473FA8973EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2934C0-91E9-431C-A64B-F6C29D52F6D5}"/>
+  <xr:revisionPtr revIDLastSave="1529" documentId="8_{8AF52736-FF23-49A2-A830-9473FA8973EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5C369E-2137-4536-A806-A3FA72EBF797}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{670DD1E5-E9B3-493F-94E8-0619D74DCA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{670DD1E5-E9B3-493F-94E8-0619D74DCA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="1" r:id="rId1"/>
@@ -804,60 +804,30 @@
     <t>HUR-L1</t>
   </si>
   <si>
-    <t>Green Glade Station</t>
-  </si>
-  <si>
-    <t>Beautiful Glen Station</t>
-  </si>
-  <si>
     <t>HUR-L2</t>
   </si>
   <si>
-    <t>Faithful Dream Station</t>
-  </si>
-  <si>
     <t>HUR-L3</t>
   </si>
   <si>
-    <t>Thundering Express Station</t>
-  </si>
-  <si>
     <t>HUR-L4</t>
   </si>
   <si>
-    <t>Melodic Fields Station</t>
-  </si>
-  <si>
     <t>HUR-L5</t>
   </si>
   <si>
-    <t>High Course Station</t>
-  </si>
-  <si>
     <t>CRU-L1</t>
   </si>
   <si>
-    <t>Ambitious Dream Station</t>
-  </si>
-  <si>
     <t>CRU-L4</t>
   </si>
   <si>
-    <t>Shallow Field Station</t>
-  </si>
-  <si>
     <t>ARC-L1</t>
   </si>
   <si>
-    <t>Wide Forest Station</t>
-  </si>
-  <si>
     <t>MIC-L1</t>
   </si>
   <si>
-    <t>Shallow Frontier Station</t>
-  </si>
-  <si>
     <t>Sentient</t>
   </si>
   <si>
@@ -1333,6 +1303,36 @@
   </si>
   <si>
     <t>Area18, Orison</t>
+  </si>
+  <si>
+    <t>Green Glade Station (HUR-L1)</t>
+  </si>
+  <si>
+    <t>Beautiful Glen Station (CRU-L5)</t>
+  </si>
+  <si>
+    <t>Faithful Dream Station (HUR-L2)</t>
+  </si>
+  <si>
+    <t>Thundering Express Station (HUR-L3)</t>
+  </si>
+  <si>
+    <t>Melodic Fields Station (HUR-L4)</t>
+  </si>
+  <si>
+    <t>High Course Station (HUR-L5)</t>
+  </si>
+  <si>
+    <t>Ambitious Dream Station (CRU-L1)</t>
+  </si>
+  <si>
+    <t>Shallow Field Station (CRU-L4)</t>
+  </si>
+  <si>
+    <t>Wide Forest Station (ARC-L1)</t>
+  </si>
+  <si>
+    <t>Shallow Frontier Station (MIC-L1)</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1833,13 +1833,13 @@
         <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1859,13 +1859,13 @@
         <v>235</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F3" s="1">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1882,16 +1882,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1963,7 +1963,7 @@
         <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F7" s="1">
         <v>40</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -2067,7 +2067,7 @@
         <v>235</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
@@ -2142,7 +2142,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -2168,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -2194,7 +2194,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -2220,16 +2220,16 @@
         <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -2246,7 +2246,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -2272,7 +2272,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>38</v>
@@ -2298,7 +2298,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -2324,10 +2324,10 @@
         <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F21" s="1">
         <v>30</v>
@@ -2350,7 +2350,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>60</v>
@@ -2370,7 +2370,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>63</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>12</v>
@@ -2411,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>12</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>12</v>
@@ -2454,7 +2454,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>12</v>
@@ -2480,7 +2480,7 @@
         <v>73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>61</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
@@ -2541,7 +2541,7 @@
         <v>576</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>12</v>
@@ -2561,7 +2561,7 @@
         <v>235</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F30" s="1">
         <v>46</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>12</v>
@@ -2610,7 +2610,7 @@
         <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>22</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>12</v>
@@ -2636,7 +2636,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>90</v>
@@ -2656,7 +2656,7 @@
         <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>92</v>
@@ -2682,7 +2682,7 @@
         <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>95</v>
@@ -2708,7 +2708,7 @@
         <v>97</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>98</v>
@@ -2734,7 +2734,7 @@
         <v>100</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>101</v>
@@ -2760,7 +2760,7 @@
         <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>104</v>
@@ -2769,7 +2769,7 @@
         <v>235</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F38" s="2">
         <v>32</v>
@@ -2786,7 +2786,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>106</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>12</v>
@@ -2812,13 +2812,13 @@
         <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>33</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>12</v>
@@ -2838,13 +2838,13 @@
         <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>61</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>12</v>
@@ -2864,7 +2864,7 @@
         <v>111</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>112</v>
@@ -2879,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>12</v>
@@ -2890,7 +2890,7 @@
         <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>114</v>
@@ -2916,7 +2916,7 @@
         <v>116</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>117</v>
@@ -2942,7 +2942,7 @@
         <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>119</v>
@@ -2951,7 +2951,7 @@
         <v>151</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F45" s="1">
         <v>8</v>
@@ -2968,13 +2968,13 @@
         <v>120</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>45</v>
@@ -2994,16 +2994,16 @@
         <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F47" s="1">
         <v>4</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>61</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>125</v>
@@ -3055,7 +3055,7 @@
         <v>151</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3069,16 +3069,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>61</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>12</v>
@@ -3098,7 +3098,7 @@
         <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>128</v>
@@ -3124,7 +3124,7 @@
         <v>129</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>130</v>
@@ -3150,13 +3150,13 @@
         <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>22</v>
@@ -3176,7 +3176,7 @@
         <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>134</v>
@@ -3202,7 +3202,7 @@
         <v>135</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>136</v>
@@ -3228,16 +3228,16 @@
         <v>137</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F56" s="2">
         <v>96</v>
@@ -3254,7 +3254,7 @@
         <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>140</v>
@@ -3280,16 +3280,16 @@
         <v>141</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F58" s="2">
         <v>96</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>75</v>
@@ -3315,7 +3315,7 @@
         <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F59" s="1">
         <v>12</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -3341,7 +3341,7 @@
         <v>235</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F60" s="2">
         <v>12</v>
@@ -3355,16 +3355,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C61" s="1">
         <v>2781000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>22</v>
@@ -3373,15 +3373,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>40</v>
@@ -3390,7 +3390,7 @@
         <v>1492700</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>43</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>12</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C63" s="1">
         <v>5225300</v>
@@ -3419,7 +3419,7 @@
         <v>235</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F63" s="1">
         <v>523</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2">
         <v>1230000</v>
@@ -3445,7 +3445,7 @@
         <v>235</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
@@ -3459,16 +3459,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C65" s="1">
         <v>654000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>45</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2">
         <v>791000</v>
@@ -3511,16 +3511,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C67" s="1">
         <v>839000</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>22</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2">
         <v>9475100</v>
@@ -3549,13 +3549,13 @@
         <v>151</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F68" s="2">
         <v>40</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>12</v>
@@ -3563,25 +3563,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C69" s="1">
         <v>9894000</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F69" s="1">
         <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>12</v>
@@ -3589,19 +3589,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C70" s="1">
         <v>32294500</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -3615,19 +3615,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C71" s="2">
         <v>4925500</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F71" s="2">
         <v>696</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>40</v>
@@ -3650,7 +3650,7 @@
         <v>406000</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>45</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2">
         <v>3256400</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C74" s="1">
         <v>4912500</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2">
         <v>5130500</v>
@@ -3731,7 +3731,7 @@
         <v>235</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F75" s="2">
         <v>115</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C76" s="1">
         <v>233000</v>
@@ -3757,13 +3757,13 @@
         <v>235</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>12</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>66</v>
@@ -3789,7 +3789,7 @@
         <v>24</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>12</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>85</v>
@@ -3806,10 +3806,10 @@
         <v>4248200</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C79" s="2">
         <v>780000</v>
@@ -3835,13 +3835,13 @@
         <v>235</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>12</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C80" s="1">
         <v>840000</v>
@@ -3861,13 +3861,13 @@
         <v>235</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>12</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C81" s="2">
         <v>870000</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>12</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>85</v>
@@ -3910,7 +3910,7 @@
         <v>1854500</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>11</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>85</v>
@@ -3936,7 +3936,7 @@
         <v>2259200</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
@@ -4014,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E321795-7F9A-4E3D-AE77-C356B404636E}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4051,7 +4051,7 @@
         <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G45">
         <v>5200</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5086,7 +5086,7 @@
         <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G46">
         <v>9550</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5109,7 +5109,7 @@
         <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G47">
         <v>19200</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5186,10 +5186,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5255,10 +5255,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>240</v>
       </c>
       <c r="F54" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G54">
         <v>5300</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5293,7 +5293,7 @@
         <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G55">
         <v>9950</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -5324,10 +5324,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G57">
         <v>39050</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -5362,7 +5362,7 @@
         <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G58">
         <v>76700</v>
@@ -5370,10 +5370,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -5416,10 +5416,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>240</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G61">
         <v>7450</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -5454,7 +5454,7 @@
         <v>220</v>
       </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G62">
         <v>14150</v>
@@ -5462,10 +5462,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B63" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5477,7 +5477,7 @@
         <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G63">
         <v>5200</v>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -5500,7 +5500,7 @@
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G64">
         <v>18650</v>
@@ -5508,10 +5508,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>220</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G65">
         <v>10600</v>
@@ -5531,10 +5531,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -5546,7 +5546,7 @@
         <v>180</v>
       </c>
       <c r="F66" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G66">
         <v>41950</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -5569,7 +5569,7 @@
         <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G67">
         <v>59300</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -5592,7 +5592,7 @@
         <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G68">
         <v>117150</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>200</v>
       </c>
       <c r="F69" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G69">
         <v>24250</v>
@@ -5623,10 +5623,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5692,10 +5692,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B74" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76" t="s">
         <v>330</v>
-      </c>
-      <c r="B76" t="s">
-        <v>340</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B80" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -5876,10 +5876,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5914,7 +5914,7 @@
         <v>600</v>
       </c>
       <c r="F82" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G82">
         <v>6500</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B83" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5937,7 +5937,7 @@
         <v>720</v>
       </c>
       <c r="F83" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G83">
         <v>4400</v>
@@ -5945,10 +5945,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B84" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5960,7 +5960,7 @@
         <v>600</v>
       </c>
       <c r="F84" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G84">
         <v>7650</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5983,7 +5983,7 @@
         <v>500</v>
       </c>
       <c r="F85" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G85">
         <v>13950</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B89" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -6075,7 +6075,7 @@
         <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G89">
         <v>12900</v>
@@ -6234,8 +6234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4007CE-06A1-4D90-A56A-F9BBC31A4C0A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6244,7 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="I7" t="s">
         <v>229</v>
@@ -6473,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="I8" t="s">
         <v>229</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>249</v>
@@ -6502,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="I9" t="s">
         <v>229</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>249</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="I10" t="s">
         <v>229</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
         <v>249</v>
@@ -6560,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
       <c r="I11" t="s">
         <v>229</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
         <v>249</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>423</v>
       </c>
       <c r="I12" t="s">
         <v>229</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
         <v>249</v>
@@ -6618,7 +6618,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>262</v>
+        <v>424</v>
       </c>
       <c r="I13" t="s">
         <v>229</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
         <v>249</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>425</v>
       </c>
       <c r="I14" t="s">
         <v>229</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
         <v>249</v>
@@ -6676,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="I15" t="s">
         <v>229</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
         <v>249</v>
@@ -6705,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>427</v>
       </c>
       <c r="I16" t="s">
         <v>229</v>
@@ -6735,27 +6735,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6766,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6780,52 +6780,52 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/CsvFiles/StarCitizienShipWeaponDatabase.xlsx
+++ b/CsvFiles/StarCitizienShipWeaponDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42de4e58389d54ac/Dokument/school/1DV503 Databasteknik/Database-Mini-Project/CsvFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1529" documentId="8_{8AF52736-FF23-49A2-A830-9473FA8973EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5C369E-2137-4536-A806-A3FA72EBF797}"/>
+  <xr:revisionPtr revIDLastSave="1579" documentId="8_{8AF52736-FF23-49A2-A830-9473FA8973EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D12EB5-E177-47E7-A915-153B6B06CD72}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{670DD1E5-E9B3-493F-94E8-0619D74DCA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{670DD1E5-E9B3-493F-94E8-0619D74DCA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="1" r:id="rId1"/>
@@ -49,31 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="428">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Cargo Capacity (SCU)</t>
-  </si>
-  <si>
-    <t>Lenght</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="431">
   <si>
     <t>Avenger Stalker</t>
   </si>
@@ -480,18 +456,6 @@
     <t>5 658 800</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>DPS</t>
-  </si>
-  <si>
-    <t>Fire Rate</t>
-  </si>
-  <si>
     <t>10-Series Greatsword</t>
   </si>
   <si>
@@ -714,27 +678,6 @@
     <t>New Babbage, Area18</t>
   </si>
   <si>
-    <t>Planet Name</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Moons</t>
-  </si>
-  <si>
-    <t>Space Station</t>
-  </si>
-  <si>
-    <t>minTemp</t>
-  </si>
-  <si>
-    <t>maxTemp</t>
-  </si>
-  <si>
     <t>Crusader</t>
   </si>
   <si>
@@ -777,24 +720,6 @@
     <t>Baijini Point</t>
   </si>
   <si>
-    <t>Station ID</t>
-  </si>
-  <si>
-    <t>Refinery</t>
-  </si>
-  <si>
-    <t>Black Market</t>
-  </si>
-  <si>
-    <t>Hangars</t>
-  </si>
-  <si>
-    <t>Pads</t>
-  </si>
-  <si>
-    <t>Docking Ports</t>
-  </si>
-  <si>
     <t>Grim Hex</t>
   </si>
   <si>
@@ -828,15 +753,6 @@
     <t>MIC-L1</t>
   </si>
   <si>
-    <t>Sentient</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Goverment</t>
-  </si>
-  <si>
     <t>Banu</t>
   </si>
   <si>
@@ -1290,9 +1206,6 @@
     <t>Lorville, New Babbage</t>
   </si>
   <si>
-    <t>Buy Location</t>
-  </si>
-  <si>
     <t>Area18</t>
   </si>
   <si>
@@ -1333,6 +1246,102 @@
   </si>
   <si>
     <t>Shallow Frontier Station (MIC-L1)</t>
+  </si>
+  <si>
+    <t>buy_location</t>
+  </si>
+  <si>
+    <t>fire_rate</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>ship_name</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>cargo_capacity(scu)</t>
+  </si>
+  <si>
+    <t>lenght</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>weapon_name</t>
+  </si>
+  <si>
+    <t>planet_name</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>moons</t>
+  </si>
+  <si>
+    <t>space_station</t>
+  </si>
+  <si>
+    <t>min_temp</t>
+  </si>
+  <si>
+    <t>max_temp</t>
+  </si>
+  <si>
+    <t>station_id</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>refinery</t>
+  </si>
+  <si>
+    <t>black_market</t>
+  </si>
+  <si>
+    <t>hangars</t>
+  </si>
+  <si>
+    <t>pads</t>
+  </si>
+  <si>
+    <t>docking_ports</t>
+  </si>
+  <si>
+    <t>station_name</t>
+  </si>
+  <si>
+    <t>species_name</t>
+  </si>
+  <si>
+    <t>sentient</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>goverment</t>
   </si>
 </sst>
 </file>
@@ -1468,13 +1477,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0FA0543-152D-4D82-9B7E-A32554F517FA}" name="Planets" displayName="Planets" ref="A1:G5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{C0FA0543-152D-4D82-9B7E-A32554F517FA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2E65E62F-C63C-4B28-9D58-0D57FA074026}" uniqueName="1" name="Planet Name" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3B2C8CB7-EAC5-477F-AB87-9745329970F7}" uniqueName="2" name="Capital" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4D44C2DF-A3E5-4427-AF79-C95AC85A79FF}" uniqueName="3" name="System" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{92262F16-9D81-4C22-8BD1-00622F020433}" uniqueName="4" name="Moons" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9EF2E267-5EFD-4C41-946E-E20BE29A38CE}" uniqueName="5" name="Space Station" queryTableFieldId="5" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{5245E1E5-0662-469A-9431-70655066524D}" uniqueName="6" name="minTemp" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{25286C73-4D4A-492F-8A7F-C1C8590FA4FF}" uniqueName="7" name="maxTemp" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{2E65E62F-C63C-4B28-9D58-0D57FA074026}" uniqueName="1" name="planet_name" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3B2C8CB7-EAC5-477F-AB87-9745329970F7}" uniqueName="2" name="capital" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4D44C2DF-A3E5-4427-AF79-C95AC85A79FF}" uniqueName="3" name="system" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{92262F16-9D81-4C22-8BD1-00622F020433}" uniqueName="4" name="moons" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9EF2E267-5EFD-4C41-946E-E20BE29A38CE}" uniqueName="5" name="space_station" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{5245E1E5-0662-469A-9431-70655066524D}" uniqueName="6" name="min_temp" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{25286C73-4D4A-492F-8A7F-C1C8590FA4FF}" uniqueName="7" name="max_temp" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1779,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCB13DB-9A09-433A-A9D8-7860F446A169}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,154 +1799,154 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>408</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>409</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F3" s="1">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1946,24 +1955,24 @@
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="F7" s="1">
         <v>40</v>
@@ -1972,24 +1981,24 @@
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
         <v>180</v>
@@ -1998,50 +2007,50 @@
         <v>155</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2050,24 +2059,24 @@
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -2076,24 +2085,24 @@
         <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2102,24 +2111,24 @@
         <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2128,128 +2137,128 @@
         <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2258,24 +2267,24 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2284,50 +2293,50 @@
         <v>22</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="F21" s="1">
         <v>30</v>
@@ -2336,180 +2345,180 @@
         <v>48</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2518,50 +2527,50 @@
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F29" s="2">
         <v>576</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="F30" s="1">
         <v>46</v>
@@ -2570,76 +2579,76 @@
         <v>36</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2648,24 +2657,24 @@
         <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F34" s="2">
         <v>66</v>
@@ -2674,24 +2683,24 @@
         <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F35" s="1">
         <v>36</v>
@@ -2700,24 +2709,24 @@
         <v>38</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F36" s="2">
         <v>120</v>
@@ -2726,24 +2735,24 @@
         <v>38</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1">
         <v>36</v>
@@ -2752,24 +2761,24 @@
         <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="F38" s="2">
         <v>32</v>
@@ -2778,128 +2787,128 @@
         <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2">
         <v>6</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F43" s="1">
         <v>291</v>
@@ -2908,24 +2917,24 @@
         <v>101</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2">
         <v>291</v>
@@ -2934,24 +2943,24 @@
         <v>101</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F45" s="1">
         <v>8</v>
@@ -2960,24 +2969,24 @@
         <v>27</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2">
         <v>12</v>
@@ -2986,24 +2995,24 @@
         <v>27</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="F47" s="1">
         <v>4</v>
@@ -3012,24 +3021,24 @@
         <v>27</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2">
         <v>4</v>
@@ -3038,24 +3047,24 @@
         <v>27</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3064,50 +3073,50 @@
         <v>13</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F51" s="1">
         <v>6</v>
@@ -3116,24 +3125,24 @@
         <v>18</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F52" s="2">
         <v>3</v>
@@ -3142,24 +3151,24 @@
         <v>18</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -3168,24 +3177,24 @@
         <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
@@ -3194,24 +3203,24 @@
         <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -3220,24 +3229,24 @@
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="F56" s="2">
         <v>96</v>
@@ -3246,24 +3255,24 @@
         <v>61</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F57" s="1">
         <v>96</v>
@@ -3272,24 +3281,24 @@
         <v>61</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F58" s="2">
         <v>96</v>
@@ -3298,24 +3307,24 @@
         <v>61</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C59" s="1">
         <v>2493500</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="F59" s="1">
         <v>12</v>
@@ -3324,24 +3333,24 @@
         <v>36</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2">
         <v>1810500</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F60" s="2">
         <v>12</v>
@@ -3350,76 +3359,76 @@
         <v>36</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1">
         <v>2781000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C62" s="2">
         <v>1492700</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C63" s="1">
         <v>5225300</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F63" s="1">
         <v>523</v>
@@ -3428,24 +3437,24 @@
         <v>94</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C64" s="2">
         <v>1230000</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="F64" s="2">
         <v>0</v>
@@ -3454,24 +3463,24 @@
         <v>30</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C65" s="1">
         <v>654000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F65" s="1">
         <v>2</v>
@@ -3480,24 +3489,24 @@
         <v>15</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="C66" s="2">
         <v>791000</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2">
         <v>2</v>
@@ -3506,24 +3515,24 @@
         <v>15</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C67" s="1">
         <v>839000</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3532,76 +3541,76 @@
         <v>15</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C68" s="2">
         <v>9475100</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F68" s="2">
         <v>40</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C69" s="1">
         <v>9894000</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F69" s="1">
         <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="C70" s="1">
         <v>32294500</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -3610,24 +3619,24 @@
         <v>210</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C71" s="2">
         <v>4925500</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="F71" s="2">
         <v>696</v>
@@ -3636,24 +3645,24 @@
         <v>94</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
         <v>406000</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1">
         <v>4</v>
@@ -3662,24 +3671,24 @@
         <v>13</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C73" s="2">
         <v>3256400</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F73" s="2">
         <v>174</v>
@@ -3688,24 +3697,24 @@
         <v>61</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C74" s="1">
         <v>4912500</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F74" s="1">
         <v>114</v>
@@ -3714,24 +3723,24 @@
         <v>56</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C75" s="2">
         <v>5130500</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="F75" s="2">
         <v>115</v>
@@ -3740,76 +3749,76 @@
         <v>45</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C76" s="1">
         <v>233000</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2">
         <v>952800</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2">
         <v>24</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1">
         <v>4248200</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3818,102 +3827,102 @@
         <v>34</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2">
         <v>780000</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C80" s="1">
         <v>840000</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C81" s="2">
         <v>870000</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1">
         <v>1854500</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -3922,24 +3931,24 @@
         <v>20</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2">
         <v>2259200</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -3948,24 +3957,24 @@
         <v>20</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
         <v>2050500</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -3974,24 +3983,24 @@
         <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2">
         <v>2012000</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
@@ -4000,7 +4009,7 @@
         <v>38</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4015,13 +4024,14 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
@@ -4036,33 +4046,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>402</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>400</v>
       </c>
       <c r="F1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4074,7 +4084,7 @@
         <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G2">
         <v>11050</v>
@@ -4082,10 +4092,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4097,7 +4107,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>23100</v>
@@ -4105,10 +4115,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4120,7 +4130,7 @@
         <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G4">
         <v>6250</v>
@@ -4128,10 +4138,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4143,7 +4153,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G5">
         <v>23500</v>
@@ -4151,10 +4161,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4166,7 +4176,7 @@
         <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G6">
         <v>12400</v>
@@ -4174,10 +4184,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4189,7 +4199,7 @@
         <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G7">
         <v>6630</v>
@@ -4197,10 +4207,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4212,7 +4222,7 @@
         <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G8">
         <v>12690</v>
@@ -4220,10 +4230,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4235,7 +4245,7 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G9">
         <v>18240</v>
@@ -4243,10 +4253,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -4258,7 +4268,7 @@
         <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G10">
         <v>28200</v>
@@ -4266,10 +4276,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -4281,7 +4291,7 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G11">
         <v>69030</v>
@@ -4289,10 +4299,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -4304,7 +4314,7 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G12">
         <v>114614</v>
@@ -4312,10 +4322,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4327,7 +4337,7 @@
         <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G13">
         <v>9750</v>
@@ -4335,10 +4345,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4350,7 +4360,7 @@
         <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G14">
         <v>13450</v>
@@ -4358,10 +4368,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -4373,7 +4383,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G15">
         <v>32500</v>
@@ -4381,10 +4391,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4396,7 +4406,7 @@
         <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G16">
         <v>14350</v>
@@ -4404,10 +4414,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4419,7 +4429,7 @@
         <v>240</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G17">
         <v>9500</v>
@@ -4427,10 +4437,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4442,7 +4452,7 @@
         <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G18">
         <v>12300</v>
@@ -4450,10 +4460,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4465,7 +4475,7 @@
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G19">
         <v>28450</v>
@@ -4473,10 +4483,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4488,7 +4498,7 @@
         <v>850</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>69650</v>
@@ -4496,10 +4506,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -4511,7 +4521,7 @@
         <v>1000</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G21">
         <v>13500</v>
@@ -4519,10 +4529,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -4534,7 +4544,7 @@
         <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G22">
         <v>42950</v>
@@ -4542,10 +4552,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4557,7 +4567,7 @@
         <v>1100</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G23">
         <v>7850</v>
@@ -4565,10 +4575,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4580,7 +4590,7 @@
         <v>1100</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G24">
         <v>7550</v>
@@ -4588,10 +4598,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4603,7 +4613,7 @@
         <v>1000</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G25">
         <v>13000</v>
@@ -4611,10 +4621,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4626,7 +4636,7 @@
         <v>1200</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G26">
         <v>4600</v>
@@ -4634,10 +4644,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4649,7 +4659,7 @@
         <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G27">
         <v>8850</v>
@@ -4657,10 +4667,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4672,7 +4682,7 @@
         <v>700</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G28">
         <v>6500</v>
@@ -4680,10 +4690,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4695,7 +4705,7 @@
         <v>600</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G29">
         <v>8400</v>
@@ -4703,10 +4713,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -4718,7 +4728,7 @@
         <v>500</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G30">
         <v>15650</v>
@@ -4726,10 +4736,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4741,7 +4751,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G31">
         <v>6850</v>
@@ -4749,10 +4759,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4764,7 +4774,7 @@
         <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G32">
         <v>10750</v>
@@ -4772,10 +4782,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4787,7 +4797,7 @@
         <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G33">
         <v>18450</v>
@@ -4795,10 +4805,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4810,7 +4820,7 @@
         <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G34">
         <v>7200</v>
@@ -4818,10 +4828,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4833,7 +4843,7 @@
         <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G35">
         <v>2600</v>
@@ -4841,10 +4851,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -4856,7 +4866,7 @@
         <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G36">
         <v>4650</v>
@@ -4864,10 +4874,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4879,7 +4889,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G37">
         <v>10050</v>
@@ -4887,10 +4897,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4902,7 +4912,7 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G38">
         <v>8250</v>
@@ -4910,10 +4920,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4925,7 +4935,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G39">
         <v>1450</v>
@@ -4933,10 +4943,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -4948,7 +4958,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G40">
         <v>3000</v>
@@ -4956,10 +4966,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4971,7 +4981,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G41">
         <v>6150</v>
@@ -4979,10 +4989,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -4994,7 +5004,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G42">
         <v>19950</v>
@@ -5002,10 +5012,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5017,7 +5027,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G43">
         <v>18950</v>
@@ -5025,10 +5035,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5040,7 +5050,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G44">
         <v>10700</v>
@@ -5048,10 +5058,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5063,7 +5073,7 @@
         <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="G45">
         <v>5200</v>
@@ -5071,10 +5081,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5086,7 +5096,7 @@
         <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G46">
         <v>9550</v>
@@ -5094,10 +5104,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5109,7 +5119,7 @@
         <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="G47">
         <v>19200</v>
@@ -5117,10 +5127,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5132,7 +5142,7 @@
         <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G48">
         <v>6360</v>
@@ -5140,10 +5150,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5155,7 +5165,7 @@
         <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G49">
         <v>12720</v>
@@ -5163,10 +5173,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5178,7 +5188,7 @@
         <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G50">
         <v>29100</v>
@@ -5186,10 +5196,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5201,7 +5211,7 @@
         <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G51">
         <v>43320</v>
@@ -5209,10 +5219,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5224,7 +5234,7 @@
         <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G52">
         <v>60380</v>
@@ -5232,10 +5242,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5247,7 +5257,7 @@
         <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G53">
         <v>118810</v>
@@ -5255,10 +5265,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5270,7 +5280,7 @@
         <v>240</v>
       </c>
       <c r="F54" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G54">
         <v>5300</v>
@@ -5278,10 +5288,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5293,7 +5303,7 @@
         <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="G55">
         <v>9950</v>
@@ -5301,10 +5311,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -5316,7 +5326,7 @@
         <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G56">
         <v>19300</v>
@@ -5324,10 +5334,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5339,7 +5349,7 @@
         <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="G57">
         <v>39050</v>
@@ -5347,10 +5357,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -5362,7 +5372,7 @@
         <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="G58">
         <v>76700</v>
@@ -5370,10 +5380,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5385,7 +5395,7 @@
         <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G59">
         <v>127350</v>
@@ -5393,10 +5403,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -5408,7 +5418,7 @@
         <v>220</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G60">
         <v>9500</v>
@@ -5416,10 +5426,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5431,7 +5441,7 @@
         <v>240</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G61">
         <v>7450</v>
@@ -5439,10 +5449,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -5454,7 +5464,7 @@
         <v>220</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="G62">
         <v>14150</v>
@@ -5462,10 +5472,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5477,7 +5487,7 @@
         <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="G63">
         <v>5200</v>
@@ -5485,10 +5495,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -5500,7 +5510,7 @@
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="G64">
         <v>18650</v>
@@ -5508,10 +5518,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5523,7 +5533,7 @@
         <v>220</v>
       </c>
       <c r="F65" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="G65">
         <v>10600</v>
@@ -5531,10 +5541,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -5546,7 +5556,7 @@
         <v>180</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="G66">
         <v>41950</v>
@@ -5554,10 +5564,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -5569,7 +5579,7 @@
         <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="G67">
         <v>59300</v>
@@ -5577,10 +5587,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -5592,7 +5602,7 @@
         <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="G68">
         <v>117150</v>
@@ -5600,10 +5610,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5615,7 +5625,7 @@
         <v>200</v>
       </c>
       <c r="F69" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G69">
         <v>24250</v>
@@ -5623,10 +5633,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5638,7 +5648,7 @@
         <v>720</v>
       </c>
       <c r="F70" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G70">
         <v>3800</v>
@@ -5646,10 +5656,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5661,7 +5671,7 @@
         <v>600</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G71">
         <v>6950</v>
@@ -5669,10 +5679,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5684,7 +5694,7 @@
         <v>500</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G72">
         <v>12000</v>
@@ -5692,10 +5702,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -5707,7 +5717,7 @@
         <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G73">
         <v>25200</v>
@@ -5715,10 +5725,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -5730,7 +5740,7 @@
         <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G74">
         <v>41000</v>
@@ -5738,10 +5748,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5753,7 +5763,7 @@
         <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G75">
         <v>73450</v>
@@ -5761,10 +5771,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5776,7 +5786,7 @@
         <v>720</v>
       </c>
       <c r="F76" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G76">
         <v>3700</v>
@@ -5784,10 +5794,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="B77" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5799,7 +5809,7 @@
         <v>600</v>
       </c>
       <c r="F77" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G77">
         <v>6150</v>
@@ -5807,10 +5817,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -5822,7 +5832,7 @@
         <v>500</v>
       </c>
       <c r="F78" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G78">
         <v>10500</v>
@@ -5830,10 +5840,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -5845,7 +5855,7 @@
         <v>480</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G79">
         <v>22250</v>
@@ -5853,10 +5863,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -5868,7 +5878,7 @@
         <v>225</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G80">
         <v>37350</v>
@@ -5876,10 +5886,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="B81" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5891,7 +5901,7 @@
         <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G81">
         <v>63800</v>
@@ -5899,10 +5909,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5914,7 +5924,7 @@
         <v>600</v>
       </c>
       <c r="F82" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="G82">
         <v>6500</v>
@@ -5922,10 +5932,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5937,7 +5947,7 @@
         <v>720</v>
       </c>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="G83">
         <v>4400</v>
@@ -5945,10 +5955,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="B84" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5960,7 +5970,7 @@
         <v>600</v>
       </c>
       <c r="F84" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G84">
         <v>7650</v>
@@ -5968,10 +5978,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5983,7 +5993,7 @@
         <v>500</v>
       </c>
       <c r="F85" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="G85">
         <v>13950</v>
@@ -5991,10 +6001,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6006,7 +6016,7 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G86">
         <v>7100</v>
@@ -6014,10 +6024,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6029,7 +6039,7 @@
         <v>85</v>
       </c>
       <c r="F87" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G87">
         <v>9850</v>
@@ -6037,10 +6047,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B88" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -6052,7 +6062,7 @@
         <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G88">
         <v>17950</v>
@@ -6060,10 +6070,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -6075,7 +6085,7 @@
         <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G89">
         <v>12900</v>
@@ -6093,58 +6103,58 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>415</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F2">
         <v>-35</v>
@@ -6155,19 +6165,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F3">
         <v>-100</v>
@@ -6178,19 +6188,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F4">
         <v>-11</v>
@@ -6201,19 +6211,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -6234,54 +6244,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4007CE-06A1-4D90-A56A-F9BBC31A4C0A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -6299,18 +6309,18 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6328,18 +6338,18 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6357,18 +6367,18 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6386,18 +6396,18 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="I5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6415,18 +6425,18 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="I6" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -6444,18 +6454,18 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6473,18 +6483,18 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -6502,18 +6512,18 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="I9" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6531,18 +6541,18 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="I10" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6560,18 +6570,18 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -6589,18 +6599,18 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="I12" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -6618,18 +6628,18 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6647,18 +6657,18 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -6676,18 +6686,18 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="I15" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -6705,10 +6715,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6721,111 +6731,112 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>428</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/CsvFiles/StarCitizienShipWeaponDatabase.xlsx
+++ b/CsvFiles/StarCitizienShipWeaponDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42de4e58389d54ac/Dokument/school/1DV503 Databasteknik/Database-Mini-Project/CsvFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1579" documentId="8_{8AF52736-FF23-49A2-A830-9473FA8973EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D12EB5-E177-47E7-A915-153B6B06CD72}"/>
+  <xr:revisionPtr revIDLastSave="1644" documentId="8_{8AF52736-FF23-49A2-A830-9473FA8973EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8A16327-1E58-44AA-8E66-BC373C7EFC39}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{670DD1E5-E9B3-493F-94E8-0619D74DCA8F}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="374">
   <si>
     <t>Avenger Stalker</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Aegis Dynamics</t>
   </si>
   <si>
-    <t>882 200</t>
-  </si>
-  <si>
     <t>Fighter</t>
   </si>
   <si>
@@ -69,78 +66,48 @@
     <t>Avenger Titan</t>
   </si>
   <si>
-    <t>785 600</t>
-  </si>
-  <si>
     <t>Avenger Warlock</t>
   </si>
   <si>
-    <t>1 155 500</t>
-  </si>
-  <si>
     <t>Eclipse</t>
   </si>
   <si>
-    <t>3 490 000</t>
-  </si>
-  <si>
     <t>Stealth Bomber</t>
   </si>
   <si>
     <t>Gladius</t>
   </si>
   <si>
-    <t>1 169 900</t>
-  </si>
-  <si>
     <t>Light Fighter</t>
   </si>
   <si>
     <t>Hammerhead</t>
   </si>
   <si>
-    <t>12 459 900</t>
-  </si>
-  <si>
     <t>Reclaimer</t>
   </si>
   <si>
-    <t>15 126 400</t>
-  </si>
-  <si>
     <t>Heavy Salvage</t>
   </si>
   <si>
     <t>Retaliator</t>
   </si>
   <si>
-    <t>4 031 700</t>
-  </si>
-  <si>
     <t>Heavy Bomber</t>
   </si>
   <si>
     <t>Sabre</t>
   </si>
   <si>
-    <t>2 183 300</t>
-  </si>
-  <si>
     <t>Stealth Fighter</t>
   </si>
   <si>
     <t>Vanguard Hoplite</t>
   </si>
   <si>
-    <t>3 104 200</t>
-  </si>
-  <si>
     <t>Vanguard Warden</t>
   </si>
   <si>
-    <t>3 387 800</t>
-  </si>
-  <si>
     <t>Heavy Fighter</t>
   </si>
   <si>
@@ -150,63 +117,33 @@
     <t>Anvil Aerospace</t>
   </si>
   <si>
-    <t>972 300</t>
-  </si>
-  <si>
-    <t>2 132 600</t>
-  </si>
-  <si>
     <t>Medium Fighter</t>
   </si>
   <si>
-    <t>1 832 100</t>
-  </si>
-  <si>
     <t>Pathfinder</t>
   </si>
   <si>
-    <t>1 654 100</t>
-  </si>
-  <si>
     <t>Gladiator</t>
   </si>
   <si>
-    <t>1 954 500</t>
-  </si>
-  <si>
     <t>Hawk</t>
   </si>
   <si>
-    <t>1 284 400</t>
-  </si>
-  <si>
     <t>Hurricane</t>
   </si>
   <si>
-    <t>1 218 300</t>
-  </si>
-  <si>
     <t>Terrapin</t>
   </si>
   <si>
-    <t>2 568 100</t>
-  </si>
-  <si>
     <t>Valkyrie</t>
   </si>
   <si>
-    <t>4 454 400</t>
-  </si>
-  <si>
     <t>Khartu-Al</t>
   </si>
   <si>
     <t>Aopoa</t>
   </si>
   <si>
-    <t>2 113 900</t>
-  </si>
-  <si>
     <t>Xi'an</t>
   </si>
   <si>
@@ -216,9 +153,6 @@
     <t>MPUV Cargo</t>
   </si>
   <si>
-    <t>224 200</t>
-  </si>
-  <si>
     <t>Light Freight</t>
   </si>
   <si>
@@ -228,54 +162,30 @@
     <t>Consolidated Outland</t>
   </si>
   <si>
-    <t>251 400</t>
-  </si>
-  <si>
     <t>Mustang Beta</t>
   </si>
   <si>
-    <t>404 000</t>
-  </si>
-  <si>
     <t>Mustang Delta</t>
   </si>
   <si>
-    <t>763 600</t>
-  </si>
-  <si>
     <t>Mustang Gamma</t>
   </si>
   <si>
-    <t>627 500</t>
-  </si>
-  <si>
     <t>Buccaneer</t>
   </si>
   <si>
     <t>Drake Interplanetary</t>
   </si>
   <si>
-    <t>1 410 100</t>
-  </si>
-  <si>
     <t>Caterpillar</t>
   </si>
   <si>
-    <t>4 686 600</t>
-  </si>
-  <si>
     <t>Cutlass Black</t>
   </si>
   <si>
-    <t>1 385 300</t>
-  </si>
-  <si>
     <t>Herald</t>
   </si>
   <si>
-    <t>1 181 100</t>
-  </si>
-  <si>
     <t>Medium Data</t>
   </si>
   <si>
@@ -285,177 +195,96 @@
     <t>Esperia</t>
   </si>
   <si>
-    <t>3 370 600</t>
-  </si>
-  <si>
     <t>P-52 Merlin</t>
   </si>
   <si>
     <t>Kruger Intergalactic</t>
   </si>
   <si>
-    <t>135 500</t>
-  </si>
-  <si>
     <t>Snub Fighter</t>
   </si>
   <si>
     <t>Freelancer</t>
   </si>
   <si>
-    <t>1 697 600</t>
-  </si>
-  <si>
     <t>Medium Freight</t>
   </si>
   <si>
     <t>Freelancer DUR</t>
   </si>
   <si>
-    <t>1 967 600</t>
-  </si>
-  <si>
     <t>Expedition</t>
   </si>
   <si>
     <t>Freelancer MAX</t>
   </si>
   <si>
-    <t>2 181 500</t>
-  </si>
-  <si>
     <t>Heavy Freight</t>
   </si>
   <si>
     <t>Freelancer MIS</t>
   </si>
   <si>
-    <t>2 537 800</t>
-  </si>
-  <si>
     <t>Gun Ship</t>
   </si>
   <si>
     <t>Prospector</t>
   </si>
   <si>
-    <t>2 061 000</t>
-  </si>
-  <si>
     <t>Razor</t>
   </si>
   <si>
-    <t>1 761 200</t>
-  </si>
-  <si>
     <t>Razor EX</t>
   </si>
   <si>
-    <t>1 878 800</t>
-  </si>
-  <si>
     <t>Razor LX</t>
   </si>
   <si>
-    <t>1 823 800</t>
-  </si>
-  <si>
     <t>Reliant Kore</t>
   </si>
   <si>
-    <t>744 700</t>
-  </si>
-  <si>
     <t>Starfarer</t>
   </si>
   <si>
-    <t>6 651 500</t>
-  </si>
-  <si>
     <t>Heavy Refueling</t>
   </si>
   <si>
     <t>Starfarer Gemini</t>
   </si>
   <si>
-    <t>6 191 500</t>
-  </si>
-  <si>
     <t>300i</t>
   </si>
   <si>
-    <t>767 200</t>
-  </si>
-  <si>
     <t>315p</t>
   </si>
   <si>
-    <t>882 600</t>
-  </si>
-  <si>
     <t>325a</t>
   </si>
   <si>
-    <t>944 200</t>
-  </si>
-  <si>
-    <t>1 602 100</t>
-  </si>
-  <si>
-    <t>574 500</t>
-  </si>
-  <si>
-    <t>1 193 800</t>
-  </si>
-  <si>
     <t>Aurora CL</t>
   </si>
   <si>
-    <t>487 600</t>
-  </si>
-  <si>
     <t>Aurora ES</t>
   </si>
   <si>
-    <t>124 100</t>
-  </si>
-  <si>
     <t>Aurora LN</t>
   </si>
   <si>
-    <t>338 400</t>
-  </si>
-  <si>
     <t>Aurora LX</t>
   </si>
   <si>
-    <t>245 500</t>
-  </si>
-  <si>
     <t>Aurora MR</t>
   </si>
   <si>
-    <t>184 900</t>
-  </si>
-  <si>
     <t>Constellation Andromeda</t>
   </si>
   <si>
-    <t>3 548 000</t>
-  </si>
-  <si>
     <t>Constellation Aquila</t>
   </si>
   <si>
-    <t>4 926 700</t>
-  </si>
-  <si>
     <t>Constellation Phoenix</t>
   </si>
   <si>
-    <t>5 658 800</t>
-  </si>
-  <si>
     <t>10-Series Greatsword</t>
   </si>
   <si>
@@ -1275,9 +1104,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>cargo_capacity(scu)</t>
-  </si>
-  <si>
     <t>lenght</t>
   </si>
   <si>
@@ -1342,6 +1168,9 @@
   </si>
   <si>
     <t>goverment</t>
+  </si>
+  <si>
+    <t>cargo_capacity</t>
   </si>
 </sst>
 </file>
@@ -1416,12 +1245,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1789,14 +1630,14 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -1804,28 +1645,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="D1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,2181 +1676,2181 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="5">
+        <v>882200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>367</v>
+        <v>287</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="C3" s="6">
+        <v>785600</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="1">
+        <v>288</v>
+      </c>
+      <c r="F3" s="4">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>367</v>
+      <c r="G3" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="5">
+        <v>1155500</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>367</v>
+        <v>287</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="6">
+        <v>3490000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>378</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="5">
+        <v>1169900</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+      <c r="C7" s="6">
+        <v>12459900</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" s="1">
+        <v>289</v>
+      </c>
+      <c r="F7" s="4">
         <v>40</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
+      <c r="C8" s="5">
+        <v>15126400</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
         <v>180</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>155</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
+      <c r="C9" s="6">
+        <v>4031700</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>379</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5">
+        <v>2183300</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>24</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
+      <c r="C11" s="6">
+        <v>3104200</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
+        <v>290</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
+      <c r="C12" s="5">
+        <v>3387800</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>972300</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2132600</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>368</v>
+        <v>22</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1832100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>367</v>
+        <v>23</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1654100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>368</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1954500</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>367</v>
+        <v>294</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1284400</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1218300</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
         <v>22</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2568100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>369</v>
+        <v>23</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4454400</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="4">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F21" s="1">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1">
-        <v>48</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2113900</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>370</v>
+        <v>9</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>307</v>
+      </c>
+      <c r="C23" s="5">
+        <v>224200</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="2">
+        <v>34</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>371</v>
+      <c r="G23" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="6">
+        <v>251400</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1">
+        <v>34</v>
+      </c>
+      <c r="F24" s="4">
         <v>4</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>372</v>
+      <c r="G24" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="5">
+        <v>404000</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>372</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="6">
+        <v>763600</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>372</v>
+        <v>9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="C27" s="5">
+        <v>627500</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>372</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1410100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4686600</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="2">
+        <v>52</v>
+      </c>
+      <c r="F29" s="3">
         <v>576</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>373</v>
+      <c r="G29" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1385300</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F30" s="1">
+        <v>295</v>
+      </c>
+      <c r="F30" s="4">
         <v>46</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>36</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1181100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>374</v>
+        <v>45</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3370600</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>375</v>
+        <v>9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
+      </c>
+      <c r="C33" s="6">
+        <v>135500</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
         <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>308</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1697600</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="2">
+        <v>52</v>
+      </c>
+      <c r="F34" s="3">
         <v>66</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>309</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1967600</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="1">
+        <v>54</v>
+      </c>
+      <c r="F35" s="4">
         <v>36</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <v>38</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>309</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2181500</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="2">
+        <v>56</v>
+      </c>
+      <c r="F36" s="3">
         <v>120</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <v>38</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>309</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2537800</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="1">
+        <v>58</v>
+      </c>
+      <c r="F37" s="4">
         <v>36</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="4">
         <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>309</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2061000</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F38" s="2">
+        <v>296</v>
+      </c>
+      <c r="F38" s="3">
         <v>32</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="3">
         <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>309</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1761200</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>376</v>
+        <v>32</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>309</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1878800</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>376</v>
+        <v>16</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>309</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1823800</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>376</v>
+        <v>32</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>309</v>
+      </c>
+      <c r="C42" s="5">
+        <v>744700</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="2">
+        <v>34</v>
+      </c>
+      <c r="F42" s="3">
         <v>6</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>377</v>
+      <c r="G42" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>309</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6651500</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="1">
+        <v>65</v>
+      </c>
+      <c r="F43" s="4">
         <v>291</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <v>101</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>109</v>
+        <v>309</v>
+      </c>
+      <c r="C44" s="5">
+        <v>6191500</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="2">
+        <v>65</v>
+      </c>
+      <c r="F44" s="3">
         <v>291</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <v>101</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>111</v>
+        <v>285</v>
+      </c>
+      <c r="C45" s="6">
+        <v>767200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F45" s="1">
+        <v>286</v>
+      </c>
+      <c r="F45" s="4">
         <v>8</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="4">
         <v>27</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>285</v>
+      </c>
+      <c r="C46" s="5">
+        <v>882600</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="2">
+        <v>23</v>
+      </c>
+      <c r="F46" s="3">
         <v>12</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="3">
         <v>27</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>285</v>
+      </c>
+      <c r="C47" s="6">
+        <v>944200</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F47" s="1">
+        <v>287</v>
+      </c>
+      <c r="F47" s="4">
         <v>4</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="4">
         <v>27</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>285</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1602100</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="2">
+        <v>32</v>
+      </c>
+      <c r="F48" s="3">
         <v>4</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="3">
         <v>27</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>285</v>
+      </c>
+      <c r="C49" s="6">
+        <v>574500</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
+        <v>286</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
         <v>13</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>285</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1193800</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>376</v>
+        <v>32</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>120</v>
+        <v>306</v>
+      </c>
+      <c r="C51" s="6">
+        <v>487600</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="1">
+        <v>34</v>
+      </c>
+      <c r="F51" s="4">
         <v>6</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="4">
         <v>18</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>306</v>
+      </c>
+      <c r="C52" s="5">
+        <v>124100</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="2">
-        <v>3</v>
-      </c>
-      <c r="G52" s="2">
+        <v>23</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>18</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>124</v>
+        <v>306</v>
+      </c>
+      <c r="C53" s="6">
+        <v>338400</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3</v>
-      </c>
-      <c r="G53" s="1">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3</v>
+      </c>
+      <c r="G53" s="4">
         <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>306</v>
+      </c>
+      <c r="C54" s="5">
+        <v>242500</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="2">
-        <v>3</v>
-      </c>
-      <c r="G54" s="2">
+        <v>23</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3">
         <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>128</v>
+        <v>306</v>
+      </c>
+      <c r="C55" s="6">
+        <v>184900</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
-      </c>
-      <c r="G55" s="1">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4">
         <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>130</v>
+        <v>306</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3548000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F56" s="2">
+        <v>298</v>
+      </c>
+      <c r="F56" s="3">
         <v>96</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="3">
         <v>61</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>306</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4926700</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="1">
+        <v>54</v>
+      </c>
+      <c r="F57" s="4">
         <v>96</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="4">
         <v>61</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>134</v>
+        <v>306</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5658800</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F58" s="2">
+        <v>286</v>
+      </c>
+      <c r="F58" s="3">
         <v>96</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="3">
         <v>61</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="1">
+        <v>41</v>
+      </c>
+      <c r="C59" s="6">
         <v>2493500</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F59" s="1">
+        <v>299</v>
+      </c>
+      <c r="F59" s="4">
         <v>12</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="4">
         <v>36</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="2">
+        <v>41</v>
+      </c>
+      <c r="C60" s="5">
         <v>1810500</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F60" s="2">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>12</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="3">
         <v>36</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="1">
+        <v>177</v>
+      </c>
+      <c r="C61" s="6">
         <v>2781000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>380</v>
+        <v>9</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="2">
+        <v>21</v>
+      </c>
+      <c r="C62" s="5">
         <v>1492700</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>367</v>
+        <v>22</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C63" s="1">
+        <v>305</v>
+      </c>
+      <c r="C63" s="6">
         <v>5225300</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F63" s="1">
+        <v>288</v>
+      </c>
+      <c r="F63" s="4">
         <v>523</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="4">
         <v>94</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C64" s="2">
+        <v>306</v>
+      </c>
+      <c r="C64" s="5">
         <v>1230000</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
+        <v>287</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
         <v>30</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C65" s="1">
+        <v>285</v>
+      </c>
+      <c r="C65" s="6">
         <v>654000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="1">
+        <v>23</v>
+      </c>
+      <c r="F65" s="4">
         <v>2</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="4">
         <v>15</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="2">
+        <v>285</v>
+      </c>
+      <c r="C66" s="5">
         <v>791000</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2">
+        <v>9</v>
+      </c>
+      <c r="F66" s="3">
         <v>2</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="3">
         <v>15</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C67" s="1">
+        <v>285</v>
+      </c>
+      <c r="C67" s="6">
         <v>839000</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C68" s="2">
+        <v>285</v>
+      </c>
+      <c r="C68" s="5">
         <v>9475100</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68" s="2">
+        <v>286</v>
+      </c>
+      <c r="F68" s="3">
         <v>40</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>381</v>
+      <c r="G68" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="1">
+        <v>285</v>
+      </c>
+      <c r="C69" s="6">
         <v>9894000</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" s="1">
+        <v>286</v>
+      </c>
+      <c r="F69" s="4">
         <v>12</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>381</v>
+      <c r="G69" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="1">
+        <v>285</v>
+      </c>
+      <c r="C70" s="6">
         <v>32294500</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F70" s="1">
+        <v>286</v>
+      </c>
+      <c r="F70" s="4">
         <v>100</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="4">
         <v>210</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C71" s="2">
+        <v>305</v>
+      </c>
+      <c r="C71" s="5">
         <v>4925500</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F71" s="2">
+        <v>288</v>
+      </c>
+      <c r="F71" s="3">
         <v>696</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="3">
         <v>94</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1">
+        <v>21</v>
+      </c>
+      <c r="C72" s="6">
         <v>406000</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="1">
+        <v>23</v>
+      </c>
+      <c r="F72" s="4">
         <v>4</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="4">
         <v>13</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C73" s="2">
+        <v>306</v>
+      </c>
+      <c r="C73" s="5">
         <v>3256400</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="2">
+        <v>52</v>
+      </c>
+      <c r="F73" s="3">
         <v>174</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="3">
         <v>61</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C74" s="1">
+        <v>305</v>
+      </c>
+      <c r="C74" s="6">
         <v>4912500</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F74" s="1">
+        <v>52</v>
+      </c>
+      <c r="F74" s="4">
         <v>114</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="4">
         <v>56</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C75" s="2">
+        <v>307</v>
+      </c>
+      <c r="C75" s="5">
         <v>5130500</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F75" s="2">
+        <v>301</v>
+      </c>
+      <c r="F75" s="3">
         <v>115</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="3">
         <v>45</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76" s="1">
+        <v>307</v>
+      </c>
+      <c r="C76" s="6">
         <v>233000</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>382</v>
+        <v>302</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="2">
+        <v>36</v>
+      </c>
+      <c r="C77" s="5">
         <v>952800</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="2">
+        <v>34</v>
+      </c>
+      <c r="F77" s="3">
         <v>24</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>383</v>
+      <c r="G77" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="1">
+        <v>47</v>
+      </c>
+      <c r="C78" s="6">
         <v>4248200</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1">
+        <v>290</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
         <v>34</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C79" s="2">
+        <v>309</v>
+      </c>
+      <c r="C79" s="5">
         <v>780000</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F79" s="2">
-        <v>0</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>377</v>
+        <v>303</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C80" s="1">
+        <v>309</v>
+      </c>
+      <c r="C80" s="6">
         <v>840000</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F80" s="1">
+        <v>304</v>
+      </c>
+      <c r="F80" s="4">
         <v>2</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>377</v>
+      <c r="G80" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C81" s="2">
+        <v>309</v>
+      </c>
+      <c r="C81" s="5">
         <v>870000</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="2">
+        <v>9</v>
+      </c>
+      <c r="F81" s="3">
         <v>1</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>377</v>
+      <c r="G81" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="1">
+        <v>47</v>
+      </c>
+      <c r="C82" s="6">
         <v>1854500</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
         <v>20</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="2">
+        <v>47</v>
+      </c>
+      <c r="C83" s="5">
         <v>2259200</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0</v>
-      </c>
-      <c r="G83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>20</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="6">
         <v>2050500</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
+        <v>19</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
         <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="5">
         <v>2012000</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2">
+        <v>19</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
         <v>38</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4046,33 +3887,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="C1" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="E1" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4084,7 +3925,7 @@
         <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>11050</v>
@@ -4092,10 +3933,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4107,7 +3948,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>23100</v>
@@ -4115,10 +3956,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4130,7 +3971,7 @@
         <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>6250</v>
@@ -4138,10 +3979,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4153,7 +3994,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>23500</v>
@@ -4161,10 +4002,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4176,7 +4017,7 @@
         <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <v>12400</v>
@@ -4184,10 +4025,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4199,7 +4040,7 @@
         <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>6630</v>
@@ -4207,10 +4048,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4222,7 +4063,7 @@
         <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G8">
         <v>12690</v>
@@ -4230,10 +4071,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4245,7 +4086,7 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <v>18240</v>
@@ -4253,10 +4094,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -4268,7 +4109,7 @@
         <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G10">
         <v>28200</v>
@@ -4276,10 +4117,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -4291,7 +4132,7 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G11">
         <v>69030</v>
@@ -4299,10 +4140,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -4314,7 +4155,7 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G12">
         <v>114614</v>
@@ -4322,10 +4163,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4337,7 +4178,7 @@
         <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>9750</v>
@@ -4345,10 +4186,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4360,7 +4201,7 @@
         <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>13450</v>
@@ -4368,10 +4209,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -4383,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G15">
         <v>32500</v>
@@ -4391,10 +4232,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4406,7 +4247,7 @@
         <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="G16">
         <v>14350</v>
@@ -4414,10 +4255,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4429,7 +4270,7 @@
         <v>240</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G17">
         <v>9500</v>
@@ -4437,10 +4278,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4452,7 +4293,7 @@
         <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="G18">
         <v>12300</v>
@@ -4460,10 +4301,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4475,7 +4316,7 @@
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="G19">
         <v>28450</v>
@@ -4483,10 +4324,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4498,7 +4339,7 @@
         <v>850</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G20">
         <v>69650</v>
@@ -4506,10 +4347,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -4521,7 +4362,7 @@
         <v>1000</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G21">
         <v>13500</v>
@@ -4529,10 +4370,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -4544,7 +4385,7 @@
         <v>900</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G22">
         <v>42950</v>
@@ -4552,10 +4393,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4567,7 +4408,7 @@
         <v>1100</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="G23">
         <v>7850</v>
@@ -4575,10 +4416,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4590,7 +4431,7 @@
         <v>1100</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G24">
         <v>7550</v>
@@ -4598,10 +4439,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4613,7 +4454,7 @@
         <v>1000</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G25">
         <v>13000</v>
@@ -4621,10 +4462,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4636,7 +4477,7 @@
         <v>1200</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="G26">
         <v>4600</v>
@@ -4644,10 +4485,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4659,7 +4500,7 @@
         <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="G27">
         <v>8850</v>
@@ -4667,10 +4508,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4682,7 +4523,7 @@
         <v>700</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="G28">
         <v>6500</v>
@@ -4690,10 +4531,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4705,7 +4546,7 @@
         <v>600</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="G29">
         <v>8400</v>
@@ -4713,10 +4554,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -4728,7 +4569,7 @@
         <v>500</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="G30">
         <v>15650</v>
@@ -4736,10 +4577,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4751,7 +4592,7 @@
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G31">
         <v>6850</v>
@@ -4759,10 +4600,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4774,7 +4615,7 @@
         <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G32">
         <v>10750</v>
@@ -4782,10 +4623,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4797,7 +4638,7 @@
         <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G33">
         <v>18450</v>
@@ -4805,10 +4646,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4820,7 +4661,7 @@
         <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="G34">
         <v>7200</v>
@@ -4828,10 +4669,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4843,7 +4684,7 @@
         <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="G35">
         <v>2600</v>
@@ -4851,10 +4692,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -4866,7 +4707,7 @@
         <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="G36">
         <v>4650</v>
@@ -4874,10 +4715,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -4889,7 +4730,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="G37">
         <v>10050</v>
@@ -4897,10 +4738,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4912,7 +4753,7 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="G38">
         <v>8250</v>
@@ -4920,10 +4761,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4935,7 +4776,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="G39">
         <v>1450</v>
@@ -4943,10 +4784,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -4958,7 +4799,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="G40">
         <v>3000</v>
@@ -4966,10 +4807,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -4981,7 +4822,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G41">
         <v>6150</v>
@@ -4989,10 +4830,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5004,7 +4845,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G42">
         <v>19950</v>
@@ -5012,10 +4853,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5027,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="G43">
         <v>18950</v>
@@ -5035,10 +4876,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5050,7 +4891,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="G44">
         <v>10700</v>
@@ -5058,10 +4899,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5073,7 +4914,7 @@
         <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="G45">
         <v>5200</v>
@@ -5081,10 +4922,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5096,7 +4937,7 @@
         <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="G46">
         <v>9550</v>
@@ -5104,10 +4945,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5119,7 +4960,7 @@
         <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="G47">
         <v>19200</v>
@@ -5127,10 +4968,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -5142,7 +4983,7 @@
         <v>240</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G48">
         <v>6360</v>
@@ -5150,10 +4991,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5165,7 +5006,7 @@
         <v>220</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G49">
         <v>12720</v>
@@ -5173,10 +5014,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5188,7 +5029,7 @@
         <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G50">
         <v>29100</v>
@@ -5196,10 +5037,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5211,7 +5052,7 @@
         <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G51">
         <v>43320</v>
@@ -5219,10 +5060,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5234,7 +5075,7 @@
         <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G52">
         <v>60380</v>
@@ -5242,10 +5083,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5257,7 +5098,7 @@
         <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G53">
         <v>118810</v>
@@ -5265,10 +5106,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5280,7 +5121,7 @@
         <v>240</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="G54">
         <v>5300</v>
@@ -5288,10 +5129,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5303,7 +5144,7 @@
         <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="G55">
         <v>9950</v>
@@ -5311,10 +5152,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -5326,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="G56">
         <v>19300</v>
@@ -5334,10 +5175,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5349,7 +5190,7 @@
         <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="G57">
         <v>39050</v>
@@ -5357,10 +5198,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -5372,7 +5213,7 @@
         <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="G58">
         <v>76700</v>
@@ -5380,10 +5221,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5395,7 +5236,7 @@
         <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="G59">
         <v>127350</v>
@@ -5403,10 +5244,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -5418,7 +5259,7 @@
         <v>220</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G60">
         <v>9500</v>
@@ -5426,10 +5267,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5441,7 +5282,7 @@
         <v>240</v>
       </c>
       <c r="F61" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="G61">
         <v>7450</v>
@@ -5449,10 +5290,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -5464,7 +5305,7 @@
         <v>220</v>
       </c>
       <c r="F62" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G62">
         <v>14150</v>
@@ -5472,10 +5313,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5487,7 +5328,7 @@
         <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="G63">
         <v>5200</v>
@@ -5495,10 +5336,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -5510,7 +5351,7 @@
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="G64">
         <v>18650</v>
@@ -5518,10 +5359,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -5533,7 +5374,7 @@
         <v>220</v>
       </c>
       <c r="F65" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="G65">
         <v>10600</v>
@@ -5541,10 +5382,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -5556,7 +5397,7 @@
         <v>180</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="G66">
         <v>41950</v>
@@ -5564,10 +5405,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -5579,7 +5420,7 @@
         <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="G67">
         <v>59300</v>
@@ -5587,10 +5428,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -5602,7 +5443,7 @@
         <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="G68">
         <v>117150</v>
@@ -5610,10 +5451,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5625,7 +5466,7 @@
         <v>200</v>
       </c>
       <c r="F69" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="G69">
         <v>24250</v>
@@ -5633,10 +5474,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5648,7 +5489,7 @@
         <v>720</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G70">
         <v>3800</v>
@@ -5656,10 +5497,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5671,7 +5512,7 @@
         <v>600</v>
       </c>
       <c r="F71" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G71">
         <v>6950</v>
@@ -5679,10 +5520,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -5694,7 +5535,7 @@
         <v>500</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G72">
         <v>12000</v>
@@ -5702,10 +5543,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -5717,7 +5558,7 @@
         <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G73">
         <v>25200</v>
@@ -5725,10 +5566,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -5740,7 +5581,7 @@
         <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G74">
         <v>41000</v>
@@ -5748,10 +5589,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -5763,7 +5604,7 @@
         <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G75">
         <v>73450</v>
@@ -5771,10 +5612,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5786,7 +5627,7 @@
         <v>720</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="G76">
         <v>3700</v>
@@ -5794,10 +5635,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5809,7 +5650,7 @@
         <v>600</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="G77">
         <v>6150</v>
@@ -5817,10 +5658,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -5832,7 +5673,7 @@
         <v>500</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="G78">
         <v>10500</v>
@@ -5840,10 +5681,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -5855,7 +5696,7 @@
         <v>480</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G79">
         <v>22250</v>
@@ -5863,10 +5704,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -5878,7 +5719,7 @@
         <v>225</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="G80">
         <v>37350</v>
@@ -5886,10 +5727,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5901,7 +5742,7 @@
         <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="G81">
         <v>63800</v>
@@ -5909,10 +5750,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -5924,7 +5765,7 @@
         <v>600</v>
       </c>
       <c r="F82" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="G82">
         <v>6500</v>
@@ -5932,10 +5773,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5947,7 +5788,7 @@
         <v>720</v>
       </c>
       <c r="F83" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="G83">
         <v>4400</v>
@@ -5955,10 +5796,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5970,7 +5811,7 @@
         <v>600</v>
       </c>
       <c r="F84" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="G84">
         <v>7650</v>
@@ -5978,10 +5819,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -5993,7 +5834,7 @@
         <v>500</v>
       </c>
       <c r="F85" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="G85">
         <v>13950</v>
@@ -6001,10 +5842,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6016,7 +5857,7 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G86">
         <v>7100</v>
@@ -6024,10 +5865,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -6039,7 +5880,7 @@
         <v>85</v>
       </c>
       <c r="F87" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G87">
         <v>9850</v>
@@ -6047,10 +5888,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -6062,7 +5903,7 @@
         <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="G88">
         <v>17950</v>
@@ -6070,10 +5911,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -6085,7 +5926,7 @@
         <v>70</v>
       </c>
       <c r="F89" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="G89">
         <v>12900</v>
@@ -6119,42 +5960,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="E1" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="F1" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>-35</v>
@@ -6165,19 +6006,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>-100</v>
@@ -6188,19 +6029,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="F4">
         <v>-11</v>
@@ -6211,19 +6052,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -6259,39 +6100,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="E1" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="F1" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="G1" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="H1" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="I1" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -6309,18 +6150,18 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6338,18 +6179,18 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6367,18 +6208,18 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6396,18 +6237,18 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6425,18 +6266,18 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -6454,18 +6295,18 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6483,18 +6324,18 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -6512,18 +6353,18 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6541,18 +6382,18 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6570,18 +6411,18 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="I11" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -6599,18 +6440,18 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -6628,18 +6469,18 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6657,18 +6498,18 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -6686,18 +6527,18 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -6715,10 +6556,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6743,100 +6584,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
